--- a/tut05/output/0401CS21.xlsx
+++ b/tut05/output/0401CS21.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C6" t="n">
-        <v>6.568181818181818</v>
+        <v>6.57</v>
       </c>
       <c r="D6" t="n">
-        <v>7.674418604651163</v>
+        <v>7.67</v>
       </c>
       <c r="E6" t="n">
-        <v>7.106382978723405</v>
+        <v>7.11</v>
       </c>
       <c r="F6" t="n">
-        <v>7.761904761904762</v>
+        <v>7.76</v>
       </c>
       <c r="G6" t="n">
-        <v>7.025</v>
+        <v>7.03</v>
       </c>
       <c r="H6" t="n">
-        <v>8.463414634146341</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>8.800000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.653061224489796</v>
+        <v>7.65</v>
       </c>
       <c r="C8" t="n">
-        <v>7.139784946236559</v>
+        <v>7.14</v>
       </c>
       <c r="D8" t="n">
-        <v>7.308823529411764</v>
+        <v>7.31</v>
       </c>
       <c r="E8" t="n">
-        <v>7.256830601092896</v>
+        <v>7.26</v>
       </c>
       <c r="F8" t="n">
-        <v>7.351111111111111</v>
+        <v>7.35</v>
       </c>
       <c r="G8" t="n">
-        <v>7.30188679245283</v>
+        <v>7.3</v>
       </c>
       <c r="H8" t="n">
-        <v>7.457516339869281</v>
+        <v>7.46</v>
       </c>
       <c r="I8" t="n">
-        <v>7.61271676300578</v>
+        <v>7.61</v>
       </c>
     </row>
   </sheetData>
